--- a/condesk_register.xlsx
+++ b/condesk_register.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="CRIAR_CONDESK"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="17">
   <si>
     <t>Hospital Mario Covas - Centros de Custos</t>
   </si>
@@ -69,13 +69,16 @@
   <si>
     <t>senha</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +102,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -150,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,37 +198,52 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -513,65 +550,73 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="44.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="44.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="17"/>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,128 +634,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="11.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -719,24 +764,24 @@
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -745,24 +790,24 @@
       <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -771,24 +816,24 @@
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -797,24 +842,24 @@
       <c r="E8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -823,24 +868,24 @@
       <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -849,24 +894,24 @@
       <c r="E10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -875,24 +920,24 @@
       <c r="E11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14" t="s">
+      <c r="F11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -901,24 +946,24 @@
       <c r="E12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -927,13 +972,13 @@
       <c r="E13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -953,7 +998,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="26.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="42.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="77.29071428571429" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="53.57642857142857" customWidth="1" bestFit="1"/>
@@ -963,13 +1008,13 @@
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -977,13 +1022,13 @@
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -991,13 +1036,13 @@
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1005,13 +1050,13 @@
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1019,13 +1064,13 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1033,13 +1078,13 @@
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1047,13 +1092,13 @@
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1061,13 +1106,13 @@
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1075,13 +1120,13 @@
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1089,13 +1134,13 @@
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1103,13 +1148,13 @@
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1117,13 +1162,13 @@
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1131,13 +1176,13 @@
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1145,13 +1190,13 @@
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1159,13 +1204,13 @@
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1173,13 +1218,13 @@
       <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1187,13 +1232,13 @@
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1201,13 +1246,13 @@
       <c r="A18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1215,13 +1260,13 @@
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1229,13 +1274,13 @@
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1243,13 +1288,13 @@
       <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1257,13 +1302,13 @@
       <c r="A22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1271,13 +1316,13 @@
       <c r="A23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1285,13 +1330,13 @@
       <c r="A24" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1299,13 +1344,13 @@
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1313,13 +1358,13 @@
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1327,13 +1372,13 @@
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1341,13 +1386,13 @@
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1355,13 +1400,13 @@
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1369,13 +1414,13 @@
       <c r="A30" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1383,13 +1428,13 @@
       <c r="A31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1397,13 +1442,13 @@
       <c r="A32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1411,13 +1456,13 @@
       <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1425,13 +1470,13 @@
       <c r="A34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="B34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1439,13 +1484,13 @@
       <c r="A35" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1453,13 +1498,13 @@
       <c r="A36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1467,13 +1512,13 @@
       <c r="A37" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1481,13 +1526,13 @@
       <c r="A38" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1495,13 +1540,13 @@
       <c r="A39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="B39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1509,13 +1554,13 @@
       <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1523,13 +1568,13 @@
       <c r="A41" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="B41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1537,13 +1582,13 @@
       <c r="A42" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1551,13 +1596,13 @@
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="B43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1565,13 +1610,13 @@
       <c r="A44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="B44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1579,13 +1624,13 @@
       <c r="A45" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="B45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1593,13 +1638,13 @@
       <c r="A46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="B46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1607,13 +1652,13 @@
       <c r="A47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1621,13 +1666,13 @@
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="B48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1635,13 +1680,13 @@
       <c r="A49" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="B49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1649,13 +1694,13 @@
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1663,13 +1708,13 @@
       <c r="A51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="B51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1677,13 +1722,13 @@
       <c r="A52" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1691,13 +1736,13 @@
       <c r="A53" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="B53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1705,13 +1750,13 @@
       <c r="A54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="B54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1719,13 +1764,13 @@
       <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1733,13 +1778,13 @@
       <c r="A56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="B56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1747,13 +1792,13 @@
       <c r="A57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="B57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1761,13 +1806,13 @@
       <c r="A58" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="B58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1775,13 +1820,13 @@
       <c r="A59" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="B59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1789,13 +1834,13 @@
       <c r="A60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="B60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1803,13 +1848,13 @@
       <c r="A61" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="B61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1817,13 +1862,13 @@
       <c r="A62" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="B62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1831,13 +1876,13 @@
       <c r="A63" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="B63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1845,13 +1890,13 @@
       <c r="A64" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="B64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1859,13 +1904,13 @@
       <c r="A65" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1873,13 +1918,13 @@
       <c r="A66" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="B66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1887,13 +1932,13 @@
       <c r="A67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="B67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1901,13 +1946,13 @@
       <c r="A68" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="B68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1915,13 +1960,13 @@
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1929,13 +1974,13 @@
       <c r="A70" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="10" t="s">
+      <c r="B70" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1943,13 +1988,13 @@
       <c r="A71" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="B71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1957,13 +2002,13 @@
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="10" t="s">
+      <c r="B72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1971,13 +2016,13 @@
       <c r="A73" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="B73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1985,13 +2030,13 @@
       <c r="A74" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="B74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1999,13 +2044,13 @@
       <c r="A75" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="B75" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2013,13 +2058,13 @@
       <c r="A76" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="B76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2027,13 +2072,13 @@
       <c r="A77" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="B77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2041,13 +2086,13 @@
       <c r="A78" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="B78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2055,13 +2100,13 @@
       <c r="A79" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="B79" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2069,13 +2114,13 @@
       <c r="A80" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="B80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2083,13 +2128,13 @@
       <c r="A81" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="10" t="s">
+      <c r="B81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2097,13 +2142,13 @@
       <c r="A82" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="10" t="s">
+      <c r="B82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2111,13 +2156,13 @@
       <c r="A83" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2125,13 +2170,13 @@
       <c r="A84" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="10" t="s">
+      <c r="B84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2139,13 +2184,13 @@
       <c r="A85" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="B85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2153,13 +2198,13 @@
       <c r="A86" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="10" t="s">
+      <c r="B86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2167,13 +2212,13 @@
       <c r="A87" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="B87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2181,13 +2226,13 @@
       <c r="A88" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="10" t="s">
+      <c r="B88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2195,13 +2240,13 @@
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="B89" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2209,13 +2254,13 @@
       <c r="A90" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="10" t="s">
+      <c r="B90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2223,13 +2268,13 @@
       <c r="A91" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="10" t="s">
+      <c r="B91" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2237,13 +2282,13 @@
       <c r="A92" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="10" t="s">
+      <c r="B92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2251,13 +2296,13 @@
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="B93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2265,13 +2310,13 @@
       <c r="A94" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="B94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2279,13 +2324,13 @@
       <c r="A95" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="10" t="s">
+      <c r="B95" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2293,13 +2338,13 @@
       <c r="A96" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="10" t="s">
+      <c r="B96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2307,13 +2352,13 @@
       <c r="A97" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="10" t="s">
+      <c r="B97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2321,13 +2366,13 @@
       <c r="A98" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="10" t="s">
+      <c r="B98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2335,13 +2380,13 @@
       <c r="A99" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="10" t="s">
+      <c r="B99" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2349,13 +2394,13 @@
       <c r="A100" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="B100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2363,13 +2408,13 @@
       <c r="A101" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="B101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2377,13 +2422,13 @@
       <c r="A102" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="B102" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2391,13 +2436,13 @@
       <c r="A103" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="B103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2405,13 +2450,13 @@
       <c r="A104" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="10" t="s">
+      <c r="B104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2419,13 +2464,13 @@
       <c r="A105" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="10" t="s">
+      <c r="B105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2433,13 +2478,13 @@
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="10" t="s">
+      <c r="B106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2447,13 +2492,13 @@
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="10" t="s">
+      <c r="B107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2461,13 +2506,13 @@
       <c r="A108" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="10" t="s">
+      <c r="B108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2475,13 +2520,13 @@
       <c r="A109" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="B109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2489,13 +2534,13 @@
       <c r="A110" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="10" t="s">
+      <c r="B110" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2503,13 +2548,13 @@
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="B111" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2517,13 +2562,13 @@
       <c r="A112" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="10" t="s">
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2531,13 +2576,13 @@
       <c r="A113" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="10" t="s">
+      <c r="B113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2545,13 +2590,13 @@
       <c r="A114" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2559,13 +2604,13 @@
       <c r="A115" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="10" t="s">
+      <c r="B115" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2573,13 +2618,13 @@
       <c r="A116" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="10" t="s">
+      <c r="B116" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2587,13 +2632,13 @@
       <c r="A117" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="10" t="s">
+      <c r="B117" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2601,13 +2646,13 @@
       <c r="A118" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="10" t="s">
+      <c r="B118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2615,13 +2660,13 @@
       <c r="A119" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="10" t="s">
+      <c r="B119" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2629,13 +2674,13 @@
       <c r="A120" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="10" t="s">
+      <c r="B120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2643,13 +2688,13 @@
       <c r="A121" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="10" t="s">
+      <c r="B121" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2657,13 +2702,13 @@
       <c r="A122" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="B122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2671,13 +2716,13 @@
       <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="10" t="s">
+      <c r="B123" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2685,13 +2730,13 @@
       <c r="A124" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="10" t="s">
+      <c r="B124" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2699,13 +2744,13 @@
       <c r="A125" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="B125" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2713,13 +2758,13 @@
       <c r="A126" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="B126" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2727,13 +2772,13 @@
       <c r="A127" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="B127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2741,13 +2786,13 @@
       <c r="A128" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="B128" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2755,13 +2800,13 @@
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="B129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2769,13 +2814,13 @@
       <c r="A130" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="B130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2783,13 +2828,13 @@
       <c r="A131" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="10" t="s">
+      <c r="B131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2797,13 +2842,13 @@
       <c r="A132" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="B132" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2811,13 +2856,13 @@
       <c r="A133" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="B133" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2825,13 +2870,13 @@
       <c r="A134" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="10" t="s">
+      <c r="B134" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2839,13 +2884,13 @@
       <c r="A135" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="B135" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2853,13 +2898,13 @@
       <c r="A136" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="10" t="s">
+      <c r="B136" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2867,13 +2912,13 @@
       <c r="A137" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="B137" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2881,13 +2926,13 @@
       <c r="A138" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="10" t="s">
+      <c r="B138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2895,13 +2940,13 @@
       <c r="A139" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="B139" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2909,13 +2954,13 @@
       <c r="A140" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="B140" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2923,13 +2968,13 @@
       <c r="A141" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="10" t="s">
+      <c r="B141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2937,13 +2982,13 @@
       <c r="A142" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="B142" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2951,13 +2996,13 @@
       <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="10" t="s">
+      <c r="B143" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2965,13 +3010,13 @@
       <c r="A144" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="10" t="s">
+      <c r="B144" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2979,13 +3024,13 @@
       <c r="A145" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="10" t="s">
+      <c r="B145" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2993,13 +3038,13 @@
       <c r="A146" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="10" t="s">
+      <c r="B146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3007,13 +3052,13 @@
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="10" t="s">
+      <c r="B147" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3021,13 +3066,13 @@
       <c r="A148" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="10" t="s">
+      <c r="B148" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3035,13 +3080,13 @@
       <c r="A149" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="10" t="s">
+      <c r="B149" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3049,13 +3094,13 @@
       <c r="A150" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="10" t="s">
+      <c r="B150" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3063,13 +3108,13 @@
       <c r="A151" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D151" s="10" t="s">
+      <c r="B151" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3077,13 +3122,13 @@
       <c r="A152" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="B152" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3091,13 +3136,13 @@
       <c r="A153" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="B153" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3105,13 +3150,13 @@
       <c r="A154" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="10" t="s">
+      <c r="B154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3119,13 +3164,13 @@
       <c r="A155" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="10" t="s">
+      <c r="B155" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3133,13 +3178,13 @@
       <c r="A156" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="10" t="s">
+      <c r="B156" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3147,13 +3192,13 @@
       <c r="A157" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="10" t="s">
+      <c r="B157" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3161,13 +3206,13 @@
       <c r="A158" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="10" t="s">
+      <c r="B158" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3175,13 +3220,13 @@
       <c r="A159" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="10" t="s">
+      <c r="B159" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3189,13 +3234,13 @@
       <c r="A160" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D160" s="10" t="s">
+      <c r="B160" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3203,13 +3248,13 @@
       <c r="A161" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="10" t="s">
+      <c r="B161" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3217,13 +3262,13 @@
       <c r="A162" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="10" t="s">
+      <c r="B162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3231,13 +3276,13 @@
       <c r="A163" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="10" t="s">
+      <c r="B163" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3245,13 +3290,13 @@
       <c r="A164" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="10" t="s">
+      <c r="B164" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3259,13 +3304,13 @@
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D165" s="10" t="s">
+      <c r="B165" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3273,13 +3318,13 @@
       <c r="A166" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="10" t="s">
+      <c r="B166" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3287,13 +3332,13 @@
       <c r="A167" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="10" t="s">
+      <c r="B167" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3301,13 +3346,13 @@
       <c r="A168" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="10" t="s">
+      <c r="B168" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3315,13 +3360,13 @@
       <c r="A169" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B169" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D169" s="10" t="s">
+      <c r="B169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3329,13 +3374,13 @@
       <c r="A170" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="10" t="s">
+      <c r="B170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3343,13 +3388,13 @@
       <c r="A171" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="10" t="s">
+      <c r="B171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3357,13 +3402,13 @@
       <c r="A172" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="10" t="s">
+      <c r="B172" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3371,13 +3416,13 @@
       <c r="A173" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B173" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="10" t="s">
+      <c r="B173" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3385,13 +3430,13 @@
       <c r="A174" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="10" t="s">
+      <c r="B174" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3399,13 +3444,13 @@
       <c r="A175" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B175" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D175" s="10" t="s">
+      <c r="B175" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3413,13 +3458,13 @@
       <c r="A176" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="10" t="s">
+      <c r="B176" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3427,13 +3472,13 @@
       <c r="A177" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D177" s="10" t="s">
+      <c r="B177" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3441,13 +3486,13 @@
       <c r="A178" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D178" s="10" t="s">
+      <c r="B178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3455,13 +3500,13 @@
       <c r="A179" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="10" t="s">
+      <c r="B179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3469,13 +3514,13 @@
       <c r="A180" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="10" t="s">
+      <c r="B180" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3483,13 +3528,13 @@
       <c r="A181" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D181" s="10" t="s">
+      <c r="B181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3497,13 +3542,13 @@
       <c r="A182" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="10" t="s">
+      <c r="B182" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3511,13 +3556,13 @@
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="10" t="s">
+      <c r="B183" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3525,13 +3570,13 @@
       <c r="A184" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B184" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="10" t="s">
+      <c r="B184" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3539,13 +3584,13 @@
       <c r="A185" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="10" t="s">
+      <c r="B185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3553,13 +3598,13 @@
       <c r="A186" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="10" t="s">
+      <c r="B186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3567,13 +3612,13 @@
       <c r="A187" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B187" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="10" t="s">
+      <c r="B187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3581,13 +3626,13 @@
       <c r="A188" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="10" t="s">
+      <c r="B188" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3595,13 +3640,13 @@
       <c r="A189" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B189" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="10" t="s">
+      <c r="B189" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3609,13 +3654,13 @@
       <c r="A190" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="10" t="s">
+      <c r="B190" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3623,13 +3668,13 @@
       <c r="A191" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="10" t="s">
+      <c r="B191" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3637,13 +3682,13 @@
       <c r="A192" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="10" t="s">
+      <c r="B192" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3651,13 +3696,13 @@
       <c r="A193" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="10" t="s">
+      <c r="B193" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3665,13 +3710,13 @@
       <c r="A194" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B194" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="10" t="s">
+      <c r="B194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3679,13 +3724,13 @@
       <c r="A195" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="10" t="s">
+      <c r="B195" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3693,13 +3738,13 @@
       <c r="A196" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B196" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="10" t="s">
+      <c r="B196" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3707,13 +3752,13 @@
       <c r="A197" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="10" t="s">
+      <c r="B197" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3721,13 +3766,13 @@
       <c r="A198" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="10" t="s">
+      <c r="B198" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3735,13 +3780,13 @@
       <c r="A199" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D199" s="10" t="s">
+      <c r="B199" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3749,13 +3794,13 @@
       <c r="A200" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D200" s="10" t="s">
+      <c r="B200" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3763,13 +3808,13 @@
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201" s="10" t="s">
+      <c r="B201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3777,13 +3822,13 @@
       <c r="A202" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B202" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D202" s="10" t="s">
+      <c r="B202" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3791,13 +3836,13 @@
       <c r="A203" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B203" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="10" t="s">
+      <c r="B203" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3805,13 +3850,13 @@
       <c r="A204" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D204" s="10" t="s">
+      <c r="B204" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3819,13 +3864,13 @@
       <c r="A205" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="10" t="s">
+      <c r="B205" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3833,13 +3878,13 @@
       <c r="A206" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B206" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D206" s="10" t="s">
+      <c r="B206" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3847,13 +3892,13 @@
       <c r="A207" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B207" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="10" t="s">
+      <c r="B207" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3861,13 +3906,13 @@
       <c r="A208" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="10" t="s">
+      <c r="B208" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3875,13 +3920,13 @@
       <c r="A209" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="10" t="s">
+      <c r="B209" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3889,13 +3934,13 @@
       <c r="A210" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="10" t="s">
+      <c r="B210" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3903,13 +3948,13 @@
       <c r="A211" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" s="10" t="s">
+      <c r="B211" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3917,13 +3962,13 @@
       <c r="A212" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B212" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D212" s="10" t="s">
+      <c r="B212" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3931,13 +3976,13 @@
       <c r="A213" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D213" s="10" t="s">
+      <c r="B213" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3945,13 +3990,13 @@
       <c r="A214" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D214" s="10" t="s">
+      <c r="B214" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3959,13 +4004,13 @@
       <c r="A215" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D215" s="10" t="s">
+      <c r="B215" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D215" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3973,13 +4018,13 @@
       <c r="A216" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B216" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D216" s="10" t="s">
+      <c r="B216" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3987,13 +4032,13 @@
       <c r="A217" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="10" t="s">
+      <c r="B217" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4001,13 +4046,13 @@
       <c r="A218" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D218" s="10" t="s">
+      <c r="B218" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4015,13 +4060,13 @@
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D219" s="10" t="s">
+      <c r="B219" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4029,13 +4074,13 @@
       <c r="A220" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="10" t="s">
+      <c r="B220" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4043,13 +4088,13 @@
       <c r="A221" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B221" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D221" s="10" t="s">
+      <c r="B221" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4057,13 +4102,13 @@
       <c r="A222" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B222" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="10" t="s">
+      <c r="B222" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4071,13 +4116,13 @@
       <c r="A223" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B223" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D223" s="10" t="s">
+      <c r="B223" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4085,13 +4130,13 @@
       <c r="A224" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D224" s="10" t="s">
+      <c r="B224" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D224" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4099,13 +4144,13 @@
       <c r="A225" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D225" s="10" t="s">
+      <c r="B225" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4113,13 +4158,13 @@
       <c r="A226" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B226" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="10" t="s">
+      <c r="B226" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4127,13 +4172,13 @@
       <c r="A227" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B227" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D227" s="10" t="s">
+      <c r="B227" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D227" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4141,13 +4186,13 @@
       <c r="A228" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="10" t="s">
+      <c r="B228" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D228" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4155,13 +4200,13 @@
       <c r="A229" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B229" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D229" s="10" t="s">
+      <c r="B229" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D229" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4169,13 +4214,13 @@
       <c r="A230" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B230" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D230" s="10" t="s">
+      <c r="B230" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4183,13 +4228,13 @@
       <c r="A231" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D231" s="10" t="s">
+      <c r="B231" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4197,13 +4242,13 @@
       <c r="A232" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D232" s="10" t="s">
+      <c r="B232" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D232" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4211,13 +4256,13 @@
       <c r="A233" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="10" t="s">
+      <c r="B233" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4225,13 +4270,13 @@
       <c r="A234" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="10" t="s">
+      <c r="B234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4239,13 +4284,13 @@
       <c r="A235" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="10" t="s">
+      <c r="B235" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4253,13 +4298,13 @@
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="10" t="s">
+      <c r="B236" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4267,13 +4312,13 @@
       <c r="A237" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D237" s="10" t="s">
+      <c r="B237" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4281,13 +4326,13 @@
       <c r="A238" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="10" t="s">
+      <c r="B238" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4295,13 +4340,13 @@
       <c r="A239" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B239" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="10" t="s">
+      <c r="B239" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4309,13 +4354,13 @@
       <c r="A240" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D240" s="10" t="s">
+      <c r="B240" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4323,13 +4368,13 @@
       <c r="A241" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="10" t="s">
+      <c r="B241" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4337,13 +4382,13 @@
       <c r="A242" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B242" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D242" s="10" t="s">
+      <c r="B242" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4351,13 +4396,13 @@
       <c r="A243" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B243" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="10" t="s">
+      <c r="B243" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4365,13 +4410,13 @@
       <c r="A244" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D244" s="10" t="s">
+      <c r="B244" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D244" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4379,13 +4424,13 @@
       <c r="A245" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D245" s="10" t="s">
+      <c r="B245" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4393,13 +4438,13 @@
       <c r="A246" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="10" t="s">
+      <c r="B246" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4407,13 +4452,13 @@
       <c r="A247" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B247" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D247" s="10" t="s">
+      <c r="B247" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4421,13 +4466,13 @@
       <c r="A248" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D248" s="10" t="s">
+      <c r="B248" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4435,13 +4480,13 @@
       <c r="A249" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B249" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="10" t="s">
+      <c r="B249" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4449,13 +4494,13 @@
       <c r="A250" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D250" s="10" t="s">
+      <c r="B250" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4463,13 +4508,13 @@
       <c r="A251" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="10" t="s">
+      <c r="B251" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4477,13 +4522,13 @@
       <c r="A252" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B252" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D252" s="10" t="s">
+      <c r="B252" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4491,13 +4536,13 @@
       <c r="A253" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B253" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D253" s="10" t="s">
+      <c r="B253" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4505,13 +4550,13 @@
       <c r="A254" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B254" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="10" t="s">
+      <c r="B254" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4519,13 +4564,13 @@
       <c r="A255" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B255" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D255" s="10" t="s">
+      <c r="B255" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4541,7 +4586,7 @@
   </sheetPr>
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
